--- a/data/trans_dic/P12C1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12C1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo)</t>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,67 +546,85 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,27 +657,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,59%</t>
+          <t>55,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,17 +687,32 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>72,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>30,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>62,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>64,64%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,97; 17,45</t>
+          <t>10,89; 16,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,72; 16,17</t>
+          <t>13,4; 18,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 18,82</t>
+          <t>50,45; 58,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,05; 54,12</t>
+          <t>51,41; 61,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,64; 48,63</t>
+          <t>41,58; 48,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,46; 53,1</t>
+          <t>45,19; 52,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,84; 35,94</t>
+          <t>66,2; 73,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,08; 32,28</t>
+          <t>68,62; 76,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,39; 35,49</t>
+          <t>27,88; 32,6</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30,57; 35,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59,48; 64,81</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>61,26; 67,99</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>52,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>49,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>69,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>71,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>31,38%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27,92%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59,04%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>62,23%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 17,72</t>
+          <t>9,33; 15,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 16,61</t>
+          <t>5,92; 12,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,61</t>
+          <t>42,79; 56,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,52; 48,49</t>
+          <t>47,72; 58,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,91; 54,56</t>
+          <t>45,78; 54,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,46; 56,48</t>
+          <t>41,59; 56,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,58; 32,22</t>
+          <t>62,52; 75,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,47; 34,13</t>
+          <t>65,75; 75,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,4; 32,39</t>
+          <t>28,31; 34,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23,87; 32,4</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54,46; 64,42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>58,42; 65,7</t>
         </is>
       </c>
     </row>
@@ -852,12 +937,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -867,12 +952,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,92%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,17 +967,32 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>32,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>57,98%</t>
         </is>
       </c>
     </row>
@@ -905,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 22,71</t>
+          <t>8,97; 20,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 20,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +1020,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,72; 61,95</t>
+          <t>33,6; 56,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,08; 59,87</t>
+          <t>43,26; 59,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,12; 39,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,07; 37,76</t>
+          <t>59,36; 79,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>27,25; 37,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>48,52; 65,06</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>53,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>69,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61,47%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>62,9%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,26</t>
+          <t>11,02; 15,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 14,94</t>
+          <t>12,05; 16,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,58</t>
+          <t>49,76; 56,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,15; 50,97</t>
+          <t>49,76; 56,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,83; 50,57</t>
+          <t>45,16; 50,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,98; 52,53</t>
+          <t>46,01; 52,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,11; 33,59</t>
+          <t>66,63; 72,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,2; 32,75</t>
+          <t>68,55; 74,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,72; 34,05</t>
+          <t>29,17; 32,72</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29,51; 34,06</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>59,24; 63,72</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>60,45; 65,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>646.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1021.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>788.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>220225</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36520</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>123448</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>914723</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>822920</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>116911</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>164163</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1303128</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1043145</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>153431</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>287610</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2217851</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>178849; 271867</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30571; 42907</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>114585; 132904</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>840985; 1005358</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>754480; 885990</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>107090; 125395</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>155782; 171810</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1231956; 1368582</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>963727; 1127125</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>142196; 164434</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>275068; 299723</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2101960; 2332786</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>629.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>167472</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6380</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>35674</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>726261</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>693792</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32001</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46185</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>992542</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>861263</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>38381</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>81858</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1718803</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>127470; 215947</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4280; 9284</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>30910; 40878</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>654856; 804382</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>631070; 749746</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27106; 36624</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>41526; 50266</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>913859; 1053176</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>777047; 947770</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32810; 44546</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>75502; 89312</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1613752; 1814828</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58086</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>191571</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>210599</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>290553</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>268686</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>482124</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>37918; 85036</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>141015; 236376</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>177509; 244112</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>244520; 326939</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>227081; 313435</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>403443; 540984</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>587.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>847.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>541.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>810.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>977.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1033.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>679.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1318.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1564.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>445783</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42900</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>159121</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1832554</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1727311</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>148912</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>210347</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2586224</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2173094</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>191812</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>369468</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4418778</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>378080; 516165</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36218; 50551</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>148963; 170318</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1705759; 1951441</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1627106; 1819092</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>139028; 158576</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>201067; 219334</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2465979; 2695074</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2052270; 2301508</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>177855; 205290</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>356079; 383012</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4246441; 4575323</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
